--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mmp9-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mmp9-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Cd44</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.770634</v>
+        <v>0.1671555</v>
       </c>
       <c r="H2">
-        <v>5.311902</v>
+        <v>0.334311</v>
       </c>
       <c r="I2">
-        <v>0.2258515124762303</v>
+        <v>0.0003419870610020847</v>
       </c>
       <c r="J2">
-        <v>0.2302920635867541</v>
+        <v>0.0002281327041493436</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N2">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O2">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P2">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q2">
-        <v>34.654835368245</v>
+        <v>5.751641564303999</v>
       </c>
       <c r="R2">
-        <v>207.92901220947</v>
+        <v>23.006566257216</v>
       </c>
       <c r="S2">
-        <v>0.006988322192249026</v>
+        <v>7.852420010496476E-06</v>
       </c>
       <c r="T2">
-        <v>0.005036926776490108</v>
+        <v>3.617297972429083E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.770634</v>
+        <v>0.1671555</v>
       </c>
       <c r="H3">
-        <v>5.311902</v>
+        <v>0.334311</v>
       </c>
       <c r="I3">
-        <v>0.2258515124762303</v>
+        <v>0.0003419870610020847</v>
       </c>
       <c r="J3">
-        <v>0.2302920635867541</v>
+        <v>0.0002281327041493436</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>346.487229</v>
       </c>
       <c r="O3">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P3">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q3">
-        <v>204.500689411062</v>
+        <v>19.3057486690365</v>
       </c>
       <c r="R3">
-        <v>1840.506204699558</v>
+        <v>115.834492014219</v>
       </c>
       <c r="S3">
-        <v>0.04123859458443947</v>
+        <v>2.635714438590933E-05</v>
       </c>
       <c r="T3">
-        <v>0.04458490369496002</v>
+        <v>1.821253412681545E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.770634</v>
+        <v>0.1671555</v>
       </c>
       <c r="H4">
-        <v>5.311902</v>
+        <v>0.334311</v>
       </c>
       <c r="I4">
-        <v>0.2258515124762303</v>
+        <v>0.0003419870610020847</v>
       </c>
       <c r="J4">
-        <v>0.2302920635867541</v>
+        <v>0.0002281327041493436</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N4">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O4">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P4">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q4">
-        <v>424.7720416661387</v>
+        <v>61.22536946946351</v>
       </c>
       <c r="R4">
-        <v>3822.948374995248</v>
+        <v>367.352216816781</v>
       </c>
       <c r="S4">
-        <v>0.08565742280635551</v>
+        <v>8.358784374808872E-05</v>
       </c>
       <c r="T4">
-        <v>0.09260810134448334</v>
+        <v>5.775839880677049E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>1.770634</v>
+        <v>0.1671555</v>
       </c>
       <c r="H5">
-        <v>5.311902</v>
+        <v>0.334311</v>
       </c>
       <c r="I5">
-        <v>0.2258515124762303</v>
+        <v>0.0003419870610020847</v>
       </c>
       <c r="J5">
-        <v>0.2302920635867541</v>
+        <v>0.0002281327041493436</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N5">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O5">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P5">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q5">
-        <v>156.423410731293</v>
+        <v>20.252085992691</v>
       </c>
       <c r="R5">
-        <v>938.540464387758</v>
+        <v>81.008343970764</v>
       </c>
       <c r="S5">
-        <v>0.03154356905710322</v>
+        <v>2.764912999625456E-05</v>
       </c>
       <c r="T5">
-        <v>0.02273544968862625</v>
+        <v>1.273685586624094E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>1.770634</v>
+        <v>0.1671555</v>
       </c>
       <c r="H6">
-        <v>5.311902</v>
+        <v>0.334311</v>
       </c>
       <c r="I6">
-        <v>0.2258515124762303</v>
+        <v>0.0003419870610020847</v>
       </c>
       <c r="J6">
-        <v>0.2302920635867541</v>
+        <v>0.0002281327041493436</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N6">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O6">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P6">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q6">
-        <v>32.09178923911934</v>
+        <v>112.377229294529</v>
       </c>
       <c r="R6">
-        <v>288.826103152074</v>
+        <v>674.263375767174</v>
       </c>
       <c r="S6">
-        <v>0.006471471024046984</v>
+        <v>0.000153422843577926</v>
       </c>
       <c r="T6">
-        <v>0.006996599066466001</v>
+        <v>0.0001060137142925791</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>1.770634</v>
+        <v>0.1671555</v>
       </c>
       <c r="H7">
-        <v>5.311902</v>
+        <v>0.334311</v>
       </c>
       <c r="I7">
-        <v>0.2258515124762303</v>
+        <v>0.0003419870610020847</v>
       </c>
       <c r="J7">
-        <v>0.2302920635867541</v>
+        <v>0.0002281327041493436</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N7">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O7">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P7">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q7">
-        <v>267.546662694022</v>
+        <v>31.582293864985</v>
       </c>
       <c r="R7">
-        <v>2407.919964246198</v>
+        <v>189.49376318991</v>
       </c>
       <c r="S7">
-        <v>0.05395213281203605</v>
+        <v>4.311767928340963E-05</v>
       </c>
       <c r="T7">
-        <v>0.05833008301572834</v>
+        <v>2.979390308450856E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.999072666666667</v>
+        <v>1.770634</v>
       </c>
       <c r="H8">
-        <v>14.997218</v>
+        <v>5.311902</v>
       </c>
       <c r="I8">
-        <v>0.6376518934716313</v>
+        <v>0.003622578483928828</v>
       </c>
       <c r="J8">
-        <v>0.6501890059870105</v>
+        <v>0.003624824093243436</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N8">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O8">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P8">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q8">
-        <v>97.841812738955</v>
+        <v>60.925617820352</v>
       </c>
       <c r="R8">
-        <v>587.05087643373</v>
+        <v>365.5537069221119</v>
       </c>
       <c r="S8">
-        <v>0.01973029460471909</v>
+        <v>8.317860825916834E-05</v>
       </c>
       <c r="T8">
-        <v>0.01422087397641362</v>
+        <v>5.747562100661357E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.999072666666667</v>
+        <v>1.770634</v>
       </c>
       <c r="H9">
-        <v>14.997218</v>
+        <v>5.311902</v>
       </c>
       <c r="I9">
-        <v>0.6376518934716313</v>
+        <v>0.003622578483928828</v>
       </c>
       <c r="J9">
-        <v>0.6501890059870105</v>
+        <v>0.003624824093243436</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>346.487229</v>
       </c>
       <c r="O9">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P9">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q9">
-        <v>577.3716119476579</v>
+        <v>204.500689411062</v>
       </c>
       <c r="R9">
-        <v>5196.344507528921</v>
+        <v>1840.506204699558</v>
       </c>
       <c r="S9">
-        <v>0.1164298951668269</v>
+        <v>0.0002791942591933869</v>
       </c>
       <c r="T9">
-        <v>0.1258776084766475</v>
+        <v>0.0002893808353697582</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.999072666666667</v>
+        <v>1.770634</v>
       </c>
       <c r="H10">
-        <v>14.997218</v>
+        <v>5.311902</v>
       </c>
       <c r="I10">
-        <v>0.6376518934716313</v>
+        <v>0.003622578483928828</v>
       </c>
       <c r="J10">
-        <v>0.6501890059870105</v>
+        <v>0.003624824093243436</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N10">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O10">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P10">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q10">
-        <v>1199.268907666626</v>
+        <v>648.5441450936048</v>
       </c>
       <c r="R10">
-        <v>10793.42016899963</v>
+        <v>5836.897305842443</v>
       </c>
       <c r="S10">
-        <v>0.2418386188497238</v>
+        <v>0.0008854239204037755</v>
       </c>
       <c r="T10">
-        <v>0.2614626332393388</v>
+        <v>0.0009177291627810086</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.999072666666667</v>
+        <v>1.770634</v>
       </c>
       <c r="H11">
-        <v>14.997218</v>
+        <v>5.311902</v>
       </c>
       <c r="I11">
-        <v>0.6376518934716313</v>
+        <v>0.003622578483928828</v>
       </c>
       <c r="J11">
-        <v>0.6501890059870105</v>
+        <v>0.003624824093243436</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N11">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O11">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P11">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q11">
-        <v>441.633898938787</v>
+        <v>214.524990380708</v>
       </c>
       <c r="R11">
-        <v>2649.803393632722</v>
+        <v>1287.149942284248</v>
       </c>
       <c r="S11">
-        <v>0.08905770129935217</v>
+        <v>0.000292879921042312</v>
       </c>
       <c r="T11">
-        <v>0.06418953047483934</v>
+        <v>0.0002023772180681968</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.999072666666667</v>
+        <v>1.770634</v>
       </c>
       <c r="H12">
-        <v>14.997218</v>
+        <v>5.311902</v>
       </c>
       <c r="I12">
-        <v>0.6376518934716313</v>
+        <v>0.003622578483928828</v>
       </c>
       <c r="J12">
-        <v>0.6501890059870105</v>
+        <v>0.003624824093243436</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N12">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O12">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P12">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q12">
-        <v>90.60550424859622</v>
+        <v>1190.382266899319</v>
       </c>
       <c r="R12">
-        <v>815.449538237366</v>
+        <v>10713.44040209387</v>
       </c>
       <c r="S12">
-        <v>0.01827105653084636</v>
+        <v>0.001625167602715779</v>
       </c>
       <c r="T12">
-        <v>0.01975366289859774</v>
+        <v>0.001684462853385558</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,14 +1210,14 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.999072666666667</v>
+        <v>1.770634</v>
       </c>
       <c r="H13">
-        <v>14.997218</v>
+        <v>5.311902</v>
       </c>
       <c r="I13">
-        <v>0.6376518934716313</v>
+        <v>0.003622578483928828</v>
       </c>
       <c r="J13">
-        <v>0.6501890059870105</v>
+        <v>0.003624824093243436</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N13">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O13">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P13">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q13">
-        <v>755.3707929089646</v>
+        <v>334.5428856085134</v>
       </c>
       <c r="R13">
-        <v>6798.337136180681</v>
+        <v>3010.88597047662</v>
       </c>
       <c r="S13">
-        <v>0.152324327020163</v>
+        <v>0.0004567341723144062</v>
       </c>
       <c r="T13">
-        <v>0.1646846969211735</v>
+        <v>0.0004733984026323009</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.453508</v>
+        <v>12.075124</v>
       </c>
       <c r="H14">
-        <v>0.9070159999999999</v>
+        <v>36.22537199999999</v>
       </c>
       <c r="I14">
-        <v>0.05784677562955994</v>
+        <v>0.02470475795289856</v>
       </c>
       <c r="J14">
-        <v>0.03932274848937411</v>
+        <v>0.02472007224762545</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N14">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O14">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P14">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q14">
-        <v>8.87605517469</v>
+        <v>415.4920723070719</v>
       </c>
       <c r="R14">
-        <v>35.50422069876</v>
+        <v>2492.952433842431</v>
       </c>
       <c r="S14">
-        <v>0.001789901256139028</v>
+        <v>0.0005672499279223609</v>
       </c>
       <c r="T14">
-        <v>0.0008600635284884684</v>
+        <v>0.0003919642628752546</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.453508</v>
+        <v>12.075124</v>
       </c>
       <c r="H15">
-        <v>0.9070159999999999</v>
+        <v>36.22537199999999</v>
       </c>
       <c r="I15">
-        <v>0.05784677562955994</v>
+        <v>0.02470475795289856</v>
       </c>
       <c r="J15">
-        <v>0.03932274848937411</v>
+        <v>0.02472007224762545</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>346.487229</v>
       </c>
       <c r="O15">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P15">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q15">
-        <v>52.37824341644399</v>
+        <v>1394.625418197132</v>
       </c>
       <c r="R15">
-        <v>314.2694604986639</v>
+        <v>12551.62876377419</v>
       </c>
       <c r="S15">
-        <v>0.010562336740851</v>
+        <v>0.001904010258386706</v>
       </c>
       <c r="T15">
-        <v>0.007612945609649398</v>
+        <v>0.001973479256759678</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.453508</v>
+        <v>12.075124</v>
       </c>
       <c r="H16">
-        <v>0.9070159999999999</v>
+        <v>36.22537199999999</v>
       </c>
       <c r="I16">
-        <v>0.05784677562955994</v>
+        <v>0.02470475795289856</v>
       </c>
       <c r="J16">
-        <v>0.03932274848937411</v>
+        <v>0.02472007224762545</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N16">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O16">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P16">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q16">
-        <v>108.7957867475307</v>
+        <v>4422.851346737534</v>
       </c>
       <c r="R16">
-        <v>652.7747204851839</v>
+        <v>39805.6621206378</v>
       </c>
       <c r="S16">
-        <v>0.02193921866521521</v>
+        <v>0.006038291160929767</v>
       </c>
       <c r="T16">
-        <v>0.01581298556507027</v>
+        <v>0.006258601969123411</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.453508</v>
+        <v>12.075124</v>
       </c>
       <c r="H17">
-        <v>0.9070159999999999</v>
+        <v>36.22537199999999</v>
       </c>
       <c r="I17">
-        <v>0.05784677562955994</v>
+        <v>0.02470475795289856</v>
       </c>
       <c r="J17">
-        <v>0.03932274848937411</v>
+        <v>0.02472007224762545</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N17">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O17">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P17">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q17">
-        <v>40.064331846066</v>
+        <v>1462.987754638088</v>
       </c>
       <c r="R17">
-        <v>160.257327384264</v>
+        <v>8777.926527828526</v>
       </c>
       <c r="S17">
-        <v>0.008079174417721994</v>
+        <v>0.00199734183557761</v>
       </c>
       <c r="T17">
-        <v>0.00388211541455001</v>
+        <v>0.001380144063057931</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.453508</v>
+        <v>12.075124</v>
       </c>
       <c r="H18">
-        <v>0.9070159999999999</v>
+        <v>36.22537199999999</v>
       </c>
       <c r="I18">
-        <v>0.05784677562955994</v>
+        <v>0.02470475795289856</v>
       </c>
       <c r="J18">
-        <v>0.03932274848937411</v>
+        <v>0.02472007224762545</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N18">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O18">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P18">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q18">
-        <v>8.219588663865332</v>
+        <v>8118.003766001536</v>
       </c>
       <c r="R18">
-        <v>49.317531983192</v>
+        <v>73062.03389401383</v>
       </c>
       <c r="S18">
-        <v>0.001657521476021301</v>
+        <v>0.0110830924536498</v>
       </c>
       <c r="T18">
-        <v>0.001194680793973557</v>
+        <v>0.01148746597434841</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.453508</v>
+        <v>12.075124</v>
       </c>
       <c r="H19">
-        <v>0.9070159999999999</v>
+        <v>36.22537199999999</v>
       </c>
       <c r="I19">
-        <v>0.05784677562955994</v>
+        <v>0.02470475795289856</v>
       </c>
       <c r="J19">
-        <v>0.03932274848937411</v>
+        <v>0.02472007224762545</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N19">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O19">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P19">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q19">
-        <v>68.52604880796399</v>
+        <v>2281.469138760813</v>
       </c>
       <c r="R19">
-        <v>411.156292847784</v>
+        <v>20533.22224884732</v>
       </c>
       <c r="S19">
-        <v>0.0138186230736114</v>
+        <v>0.003114772316432317</v>
       </c>
       <c r="T19">
-        <v>0.009959957577642406</v>
+        <v>0.003228416721460764</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1271686666666667</v>
+        <v>0.7412495</v>
       </c>
       <c r="H20">
-        <v>0.381506</v>
+        <v>1.482499</v>
       </c>
       <c r="I20">
-        <v>0.01622087664997523</v>
+        <v>0.001516538420657799</v>
       </c>
       <c r="J20">
-        <v>0.0165398013763673</v>
+        <v>0.00101165234098997</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N20">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O20">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P20">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q20">
-        <v>2.488944190235</v>
+        <v>25.505600675536</v>
       </c>
       <c r="R20">
-        <v>14.93366514141</v>
+        <v>102.022402702144</v>
       </c>
       <c r="S20">
-        <v>0.0005019081387940058</v>
+        <v>3.482148302969693E-05</v>
       </c>
       <c r="T20">
-        <v>0.0003617570103498964</v>
+        <v>1.604087399705108E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.1271686666666667</v>
+        <v>0.7412495</v>
       </c>
       <c r="H21">
-        <v>0.381506</v>
+        <v>1.482499</v>
       </c>
       <c r="I21">
-        <v>0.01622087664997523</v>
+        <v>0.001516538420657799</v>
       </c>
       <c r="J21">
-        <v>0.0165398013763673</v>
+        <v>0.00101165234098997</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>346.487229</v>
       </c>
       <c r="O21">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P21">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q21">
-        <v>14.687439642986</v>
+        <v>85.61116175087851</v>
       </c>
       <c r="R21">
-        <v>132.186956786874</v>
+        <v>513.666970505271</v>
       </c>
       <c r="S21">
-        <v>0.002961796220173333</v>
+        <v>0.0001168805100489251</v>
       </c>
       <c r="T21">
-        <v>0.003202131415272612</v>
+        <v>8.076331209702875E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1271686666666667</v>
+        <v>0.7412495</v>
       </c>
       <c r="H22">
-        <v>0.381506</v>
+        <v>1.482499</v>
       </c>
       <c r="I22">
-        <v>0.01622087664997523</v>
+        <v>0.001516538420657799</v>
       </c>
       <c r="J22">
-        <v>0.0165398013763673</v>
+        <v>0.00101165234098997</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N22">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O22">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P22">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q22">
-        <v>30.50754372499378</v>
+        <v>271.5033277789549</v>
       </c>
       <c r="R22">
-        <v>274.567893524944</v>
+        <v>1629.019966673729</v>
       </c>
       <c r="S22">
-        <v>0.00615199993244632</v>
+        <v>0.0003706695106314114</v>
       </c>
       <c r="T22">
-        <v>0.006651204467162322</v>
+        <v>0.0002561290788297078</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1271686666666667</v>
+        <v>0.7412495</v>
       </c>
       <c r="H23">
-        <v>0.381506</v>
+        <v>1.482499</v>
       </c>
       <c r="I23">
-        <v>0.01622087664997523</v>
+        <v>0.001516538420657799</v>
       </c>
       <c r="J23">
-        <v>0.0165398013763673</v>
+        <v>0.00101165234098997</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N23">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O23">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P23">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q23">
-        <v>11.234482438579</v>
+        <v>89.807685753919</v>
       </c>
       <c r="R23">
-        <v>67.406894631474</v>
+        <v>359.230743015676</v>
       </c>
       <c r="S23">
-        <v>0.002265489999005859</v>
+        <v>0.0001226098081436668</v>
       </c>
       <c r="T23">
-        <v>0.001632882246116184</v>
+        <v>5.64814681085765E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1271686666666667</v>
+        <v>0.7412495</v>
       </c>
       <c r="H24">
-        <v>0.381506</v>
+        <v>1.482499</v>
       </c>
       <c r="I24">
-        <v>0.01622087664997523</v>
+        <v>0.001516538420657799</v>
       </c>
       <c r="J24">
-        <v>0.0165398013763673</v>
+        <v>0.00101165234098997</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N24">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O24">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P24">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q24">
-        <v>2.304863708980223</v>
+        <v>498.3357713383943</v>
       </c>
       <c r="R24">
-        <v>20.743773380822</v>
+        <v>2990.014628030366</v>
       </c>
       <c r="S24">
-        <v>0.0004647873820902699</v>
+        <v>0.0006803521636483146</v>
       </c>
       <c r="T24">
-        <v>0.0005025025920002249</v>
+        <v>0.0004701168236313916</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1271686666666667</v>
+        <v>0.7412495</v>
       </c>
       <c r="H25">
-        <v>0.381506</v>
+        <v>1.482499</v>
       </c>
       <c r="I25">
-        <v>0.01622087664997523</v>
+        <v>0.001516538420657799</v>
       </c>
       <c r="J25">
-        <v>0.0165398013763673</v>
+        <v>0.00101165234098997</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N25">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O25">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P25">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q25">
-        <v>19.21546314253267</v>
+        <v>140.0513865010317</v>
       </c>
       <c r="R25">
-        <v>172.939168282794</v>
+        <v>840.30831900619</v>
       </c>
       <c r="S25">
-        <v>0.00387489497746544</v>
+        <v>0.0001912049451557845</v>
       </c>
       <c r="T25">
-        <v>0.004189323645466061</v>
+        <v>0.0001321207843262138</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,13 +2016,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.4894313333333334</v>
+        <v>466.7532549999999</v>
       </c>
       <c r="H26">
-        <v>1.468294</v>
+        <v>1400.259765</v>
       </c>
       <c r="I26">
-        <v>0.06242894177260313</v>
+        <v>0.9549406025563415</v>
       </c>
       <c r="J26">
-        <v>0.06365638056049407</v>
+        <v>0.9555325630953643</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N26">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O26">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P26">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q26">
-        <v>9.579146385265002</v>
+        <v>16060.47914506064</v>
       </c>
       <c r="R26">
-        <v>57.47487831159001</v>
+        <v>96362.87487036381</v>
       </c>
       <c r="S26">
-        <v>0.001931683141922816</v>
+        <v>0.02192654504055423</v>
       </c>
       <c r="T26">
-        <v>0.001392286485021706</v>
+        <v>0.01515103244825484</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,13 +2078,13 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.4894313333333334</v>
+        <v>466.7532549999999</v>
       </c>
       <c r="H27">
-        <v>1.468294</v>
+        <v>1400.259765</v>
       </c>
       <c r="I27">
-        <v>0.06242894177260313</v>
+        <v>0.9549406025563415</v>
       </c>
       <c r="J27">
-        <v>0.06365638056049407</v>
+        <v>0.9555325630953643</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>346.487229</v>
       </c>
       <c r="O27">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P27">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q27">
-        <v>56.527235490814</v>
+        <v>53908.01398389346</v>
       </c>
       <c r="R27">
-        <v>508.745119417326</v>
+        <v>485172.1258550411</v>
       </c>
       <c r="S27">
-        <v>0.011399001901158</v>
+        <v>0.0735978351572527</v>
       </c>
       <c r="T27">
-        <v>0.01232397483724053</v>
+        <v>0.07628309794314</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,13 +2140,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.4894313333333334</v>
+        <v>466.7532549999999</v>
       </c>
       <c r="H28">
-        <v>1.468294</v>
+        <v>1400.259765</v>
       </c>
       <c r="I28">
-        <v>0.06242894177260313</v>
+        <v>0.9549406025563415</v>
       </c>
       <c r="J28">
-        <v>0.06365638056049407</v>
+        <v>0.9555325630953643</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N28">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O28">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P28">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q28">
-        <v>117.4137324344729</v>
+        <v>170961.4131060582</v>
       </c>
       <c r="R28">
-        <v>1056.723591910256</v>
+        <v>1538652.717954524</v>
       </c>
       <c r="S28">
-        <v>0.023677070842428</v>
+        <v>0.2334048125718376</v>
       </c>
       <c r="T28">
-        <v>0.02559834868103682</v>
+        <v>0.2419207323119631</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,13 +2202,13 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.4894313333333334</v>
+        <v>466.7532549999999</v>
       </c>
       <c r="H29">
-        <v>1.468294</v>
+        <v>1400.259765</v>
       </c>
       <c r="I29">
-        <v>0.06242894177260313</v>
+        <v>0.9549406025563415</v>
       </c>
       <c r="J29">
-        <v>0.06365638056049407</v>
+        <v>0.9555325630953643</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N29">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O29">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P29">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q29">
-        <v>43.237912792121</v>
+        <v>56550.4997300623</v>
       </c>
       <c r="R29">
-        <v>259.427476752726</v>
+        <v>339302.9983803738</v>
       </c>
       <c r="S29">
-        <v>0.008719143008498711</v>
+        <v>0.07720548485494015</v>
       </c>
       <c r="T29">
-        <v>0.006284439051230954</v>
+        <v>0.05334824998908621</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.4894313333333334</v>
+        <v>466.7532549999999</v>
       </c>
       <c r="H30">
-        <v>1.468294</v>
+        <v>1400.259765</v>
       </c>
       <c r="I30">
-        <v>0.06242894177260313</v>
+        <v>0.9549406025563415</v>
       </c>
       <c r="J30">
-        <v>0.06365638056049407</v>
+        <v>0.9555325630953643</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N30">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O30">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P30">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q30">
-        <v>8.870679765753112</v>
+        <v>313794.2667821445</v>
       </c>
       <c r="R30">
-        <v>79.83611789177802</v>
+        <v>2824148.4010393</v>
       </c>
       <c r="S30">
-        <v>0.001788817277837965</v>
+        <v>0.4284071516124374</v>
       </c>
       <c r="T30">
-        <v>0.001933971001290618</v>
+        <v>0.4440378529635695</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>466.7532549999999</v>
+      </c>
+      <c r="H31">
+        <v>1400.259765</v>
+      </c>
+      <c r="I31">
+        <v>0.9549406025563415</v>
+      </c>
+      <c r="J31">
+        <v>0.9555325630953643</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>188.9396033333333</v>
+      </c>
+      <c r="N31">
+        <v>566.81881</v>
+      </c>
+      <c r="O31">
+        <v>0.1260798556444414</v>
+      </c>
+      <c r="P31">
+        <v>0.1305990002424397</v>
+      </c>
+      <c r="Q31">
+        <v>88188.17485424217</v>
+      </c>
+      <c r="R31">
+        <v>793693.5736881795</v>
+      </c>
+      <c r="S31">
+        <v>0.1203987733193195</v>
+      </c>
+      <c r="T31">
+        <v>0.1247915974393505</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>7.269846</v>
+      </c>
+      <c r="H32">
+        <v>21.809538</v>
+      </c>
+      <c r="I32">
+        <v>0.01487353552517124</v>
+      </c>
+      <c r="J32">
+        <v>0.01488275551862747</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>34.408928</v>
+      </c>
+      <c r="N32">
+        <v>68.81785599999999</v>
+      </c>
+      <c r="O32">
+        <v>0.02296116112547488</v>
+      </c>
+      <c r="P32">
+        <v>0.01585611315973826</v>
+      </c>
+      <c r="Q32">
+        <v>250.147607585088</v>
+      </c>
+      <c r="R32">
+        <v>1500.885645510528</v>
+      </c>
+      <c r="S32">
+        <v>0.0003415136456989315</v>
+      </c>
+      <c r="T32">
+        <v>0.0002359826556320762</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>7.269846</v>
+      </c>
+      <c r="H33">
+        <v>21.809538</v>
+      </c>
+      <c r="I33">
+        <v>0.01487353552517124</v>
+      </c>
+      <c r="J33">
+        <v>0.01488275551862747</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>115.495743</v>
+      </c>
+      <c r="N33">
+        <v>346.487229</v>
+      </c>
+      <c r="O33">
+        <v>0.07707058947984194</v>
+      </c>
+      <c r="P33">
+        <v>0.07983306994376788</v>
+      </c>
+      <c r="Q33">
+        <v>839.6362652655781</v>
+      </c>
+      <c r="R33">
+        <v>7556.726387390202</v>
+      </c>
+      <c r="S33">
+        <v>0.001146312150574318</v>
+      </c>
+      <c r="T33">
+        <v>0.001188136062274584</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>7.269846</v>
+      </c>
+      <c r="H34">
+        <v>21.809538</v>
+      </c>
+      <c r="I34">
+        <v>0.01487353552517124</v>
+      </c>
+      <c r="J34">
+        <v>0.01488275551862747</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>366.2779236666667</v>
+      </c>
+      <c r="N34">
+        <v>1098.833771</v>
+      </c>
+      <c r="O34">
+        <v>0.2444181469999509</v>
+      </c>
+      <c r="P34">
+        <v>0.253178951357013</v>
+      </c>
+      <c r="Q34">
+        <v>2662.784098256423</v>
+      </c>
+      <c r="R34">
+        <v>23965.0568843078</v>
+      </c>
+      <c r="S34">
+        <v>0.003635361992400296</v>
+      </c>
+      <c r="T34">
+        <v>0.003768000435508899</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>7.269846</v>
+      </c>
+      <c r="H35">
+        <v>21.809538</v>
+      </c>
+      <c r="I35">
+        <v>0.01487353552517124</v>
+      </c>
+      <c r="J35">
+        <v>0.01488275551862747</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>121.157162</v>
+      </c>
+      <c r="N35">
+        <v>242.314324</v>
+      </c>
+      <c r="O35">
+        <v>0.08084846811232432</v>
+      </c>
+      <c r="P35">
+        <v>0.05583090733848903</v>
+      </c>
+      <c r="Q35">
+        <v>880.7939095370521</v>
+      </c>
+      <c r="R35">
+        <v>5284.763457222312</v>
+      </c>
+      <c r="S35">
+        <v>0.00120250256262433</v>
+      </c>
+      <c r="T35">
+        <v>0.0008309177443018765</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.4894313333333334</v>
-      </c>
-      <c r="H31">
-        <v>1.468294</v>
-      </c>
-      <c r="I31">
-        <v>0.06242894177260313</v>
-      </c>
-      <c r="J31">
-        <v>0.06365638056049407</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>151.102183</v>
-      </c>
-      <c r="N31">
-        <v>453.306549</v>
-      </c>
-      <c r="O31">
-        <v>0.2388832034840335</v>
-      </c>
-      <c r="P31">
-        <v>0.2532874216646838</v>
-      </c>
-      <c r="Q31">
-        <v>73.95414289526734</v>
-      </c>
-      <c r="R31">
-        <v>665.587286057406</v>
-      </c>
-      <c r="S31">
-        <v>0.01491322560075763</v>
-      </c>
-      <c r="T31">
-        <v>0.01612336050467344</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>7.269846</v>
+      </c>
+      <c r="H36">
+        <v>21.809538</v>
+      </c>
+      <c r="I36">
+        <v>0.01487353552517124</v>
+      </c>
+      <c r="J36">
+        <v>0.01488275551862747</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>672.2915446666666</v>
+      </c>
+      <c r="N36">
+        <v>2016.874634</v>
+      </c>
+      <c r="O36">
+        <v>0.4486217786379665</v>
+      </c>
+      <c r="P36">
+        <v>0.4647019579585521</v>
+      </c>
+      <c r="Q36">
+        <v>4887.455996828788</v>
+      </c>
+      <c r="R36">
+        <v>43987.10397145909</v>
+      </c>
+      <c r="S36">
+        <v>0.006672591961937304</v>
+      </c>
+      <c r="T36">
+        <v>0.00691604562932463</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>7.269846</v>
+      </c>
+      <c r="H37">
+        <v>21.809538</v>
+      </c>
+      <c r="I37">
+        <v>0.01487353552517124</v>
+      </c>
+      <c r="J37">
+        <v>0.01488275551862747</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>188.9396033333333</v>
+      </c>
+      <c r="N37">
+        <v>566.81881</v>
+      </c>
+      <c r="O37">
+        <v>0.1260798556444414</v>
+      </c>
+      <c r="P37">
+        <v>0.1305990002424397</v>
+      </c>
+      <c r="Q37">
+        <v>1373.56181953442</v>
+      </c>
+      <c r="R37">
+        <v>12362.05637580978</v>
+      </c>
+      <c r="S37">
+        <v>0.001875253211936061</v>
+      </c>
+      <c r="T37">
+        <v>0.0019436729915854</v>
       </c>
     </row>
   </sheetData>
